--- a/Tool/ExeclToScript/Work/TransXlsxTable/PassConfig.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/PassConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>PassID</t>
   </si>
@@ -83,13 +83,16 @@
     <t>无压力</t>
   </si>
   <si>
-    <t>[{ID:1,Pos:{X:0,Y:-5}},{ID:1,Pos:{X:0,Y:5}},{ID:2,Pos:{X:-2.5,Y:0}},{ID:2,Pos:{X:2.5,Y:0}},{ID:5,Pos:{X:1,Y:0}}]</t>
+    <t>[{ID:1,Pos:{X:0,Y:-50.5}},{ID:1,Pos:{X:0,Y:50.5}},{ID:4,Pos:{X:0,Y:0}},{ID:2,Pos:{X:-50.5,Y:0}},{ID:2,Pos:{X:50.5,Y:0}},{ID:5,Pos:{X:1,Y:0}}]</t>
   </si>
   <si>
     <t>第二关</t>
   </si>
   <si>
     <t>[{ID:1,Pos:{X:0,Y:0}},{ID:2,Pos:{X:0,Y:0}},{ID:1,Pos:{X:0,Y:0}},{ID:2,Pos:{X:0,Y:0}}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1035,13 +1038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D6" sqref="E5 D6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.35" customWidth="1"/>
@@ -1152,6 +1155,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="23" spans="16:16">
+      <c r="P23" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
